--- a/Data/Metadata/Angiosperms/powo/Gesneriaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Gesneriaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -914,61 +914,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gesneriaceae</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cubitanthus</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>alatus</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>(Cham. &amp; Schltdl.) Barringer</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Cubitanthus_alatus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:72072-2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:72072-2</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
